--- a/medicine/Maladies infectieuses/Le_Grand_Livre/Le_Grand_Livre.xlsx
+++ b/medicine/Maladies infectieuses/Le_Grand_Livre/Le_Grand_Livre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">The Doomsday Book
 Le Grand Livre (titre original : The Doomsday Book) est un roman de science-fiction de Connie Willis publié en 1992. Il reçoit le prix Nebula du meilleur roman la même année, puis le prix Hugo du meilleur roman et le prix Locus du meilleur roman de science-fiction l'année suivante. 
@@ -514,7 +526,9 @@
           <t>Titre du roman</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le titre original, Doomsday Book (qui signifie littéralement Livre du Jugement dernier), renvoie dans un anglais modernisé au Domesday Book, registre cadastral commandé par Guillaume le Conquérant à la fin du XIe siècle en Angleterre. La notion de Jugement dernier, d'Apocalypse ou de Fin du monde nourrit directement les deux intrigues mêlées du récit. La traduction française fait disparaître cette notion.
 </t>
@@ -545,7 +559,9 @@
           <t>Personnages principaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2054
 M. Gilchrist : directeur du laboratoire de recherche.
@@ -595,11 +611,48 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le roman, composé de 36 chapitres, est structuré en trois parties distinctes et de tailles différentes. Chacune des parties entremêle deux intrigues qui se déroulent aux XIVe et XXIe siècles.
-Première partie
-Chapitres 1 à 9.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le roman, composé de 36 chapitres, est structuré en trois parties distinctes et de tailles différentes. Chacune des parties entremêle deux intrigues qui se déroulent aux XIVe et XXIe siècles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Le_Grand_Livre</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Grand_Livre</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Résumé</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Première partie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chapitres 1 à 9.
 Oxford, 2054
 Les chercheurs de la faculté d'histoire de l'université d'Oxford se préparent à faire voyager dans le temps une jeune historienne, Kivrin Engle. Les préparatifs sont longuement décrits : la puce électronique sous-cutanée qui lui servira d'interprète-dictionnaire avec les autochtones du XIVe siècle, la préparation de l’aspect de Kivrin, les objets qu'elle emportera avec elle et ses vêtements, le microphone qui servira à enregistrer ses rapports. La jeune femme a travaillé en profondeur l'histoire de l'Angleterre de cette période lointaine ainsi que les mœurs de ses habitants. Elle sait qu'elle risque d'être blessée, violée, voire tuée, et a conscience qu'il existe un risque pour qu'elle soit dans l'incapacité de revenir à son époque. Elle est en excellente condition physique et a été vaccinée contre une quinzaine de maladies graves.
 Les chercheurs ont décidé de l'envoyer en 1320, en une époque relativement sereine et prospère. Elle se matérialisera en Oxfordshire près du village de Skendgate, sur la route Oxford-Bath, et se présentera sous l'identité d'une jeune noble (« Isabel de Beauvrier ») dont les domestiques se sont enfuis après que le convoi eut été attaqué par des brigands. Le voyage devrait durer deux semaines et le saut temporel aura lieu peu avant Noël. Une porte temporelle sera ouverte, que Kivrin empruntera. Elle sera rouverte deux semaines après, au même endroit, à charge pour Kivrin d'être là au rendez-vous.
@@ -607,43 +660,114 @@
 Aventures de Kivrin, XIVe siècle
 Se matérialisant, Kivrin suit le protocole prévu. Elle reste allongée, en apparence inanimée, puis se lève et repère les environs. Elle n'est pas sur la route Oxford-Bath ; elle souffre du décalage temporel et du froid. Peu après, elle sombre en léthargie. Plus tard, elle voit à travers ses yeux mi-clos qu'un homme est près d'elle. Elle ignore s'il est animé de bonnes ou de mauvaises intentions. Totalement engourdie, elle ne peut pas lutter quand l'homme la met sur son épaule et l'emmène vers une destination inconnue.
 Lorsqu'elle se réveille, elle est allongée sur un lit. Elle entend des voix qu'elle ne comprend pas. Quand elle essaie de communiquer avec ses hôtes elle se rend compte qu'ils ne la comprennent pas non plus : le traducteur automatique est en panne ! Elle suppose que l'homme qui l'a emmenée est un bandit et elle a peur de lui. Néanmoins elle parvient à communiquer avec lui en utilisant la langue latine : ce n’est pas un bandit mais un prêtre.
-Deuxième partie
-Chapitres 10 à 23.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Le_Grand_Livre</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Grand_Livre</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Résumé</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Deuxième partie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Chapitres 10 à 23.
 Oxford, 2054
-Aventures de Kivrin
-Troisième partie
-Chapitres 24 à 36.
+Aventures de Kivrin</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Le_Grand_Livre</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Grand_Livre</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Résumé</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Troisième partie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Chapitres 24 à 36.
 Oxford, 2054
 Aventures de Kivrin
 Dénouement (chapitres 33 à 36)</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Le_Grand_Livre</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Maladies infectieuses/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Le_Grand_Livre</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Prix Nebula du meilleur roman 1992
 Prix Hugo du meilleur roman 1993
